--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Tuesday</t>
   </si>
@@ -41,15 +41,6 @@
     <t>Javascript</t>
   </si>
   <si>
-    <t xml:space="preserve">English </t>
-  </si>
-  <si>
-    <t>9:00 - 10:00 AM</t>
-  </si>
-  <si>
-    <t>10:00 - 11 AM</t>
-  </si>
-  <si>
     <t>schedule</t>
   </si>
   <si>
@@ -62,9 +53,6 @@
     <t>Chun Soching</t>
   </si>
   <si>
-    <t>Chhunneii Oeuy</t>
-  </si>
-  <si>
     <t>Khlorp Veak</t>
   </si>
   <si>
@@ -74,7 +62,25 @@
     <t>7:00 - 8:30 PM</t>
   </si>
   <si>
-    <t>Total : 6:30 hours</t>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>9:00 - 11:00 AM</t>
+  </si>
+  <si>
+    <t>06:30 - 8:00 AM</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Loem Neardey</t>
+  </si>
+  <si>
+    <t>Total : 9:30 hours</t>
+  </si>
+  <si>
+    <t>9:30 - 11:00AM</t>
   </si>
 </sst>
 </file>
@@ -180,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,7 +197,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -201,13 +206,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,32 +506,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="18.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="23.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -532,13 +547,16 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -550,56 +568,63 @@
         <v>4</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>16</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
